--- a/data/trans_orig/P1434-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A01C6A3-FF18-47F1-9615-50D7D88B94DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EA7C3A-0E10-48B8-B1AB-777318FC9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{0CEFDA1B-D7DC-499A-9002-2E9E5D6ECEFA}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1139B6AA-CD16-4410-B8F3-623C0F79B118}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="166">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -128,13 +128,13 @@
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,06%</t>
+    <t>0,85%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>98,94%</t>
+    <t>99,15%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -146,19 +146,19 @@
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>99,84%</t>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -170,19 +170,19 @@
     <t>5,1%</t>
   </si>
   <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>94,9%</t>
   </si>
   <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
   </si>
   <si>
     <t>65 y más</t>
@@ -194,226 +194,226 @@
     <t>15,95%</t>
   </si>
   <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
   </si>
   <si>
     <t>84,05%</t>
   </si>
   <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>80,58%</t>
+  </si>
+  <si>
+    <t>86,95%</t>
   </si>
   <si>
     <t>0,06%</t>
   </si>
   <si>
-    <t>3,24%</t>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>85,33%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,38%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>98,96%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
   </si>
   <si>
     <t>2,71%</t>
   </si>
   <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
   </si>
   <si>
     <t>97,29%</t>
   </si>
   <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>99,07%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,64%</t>
-  </si>
-  <si>
-    <t>98,36%</t>
-  </si>
-  <si>
-    <t>99,85%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>98,61%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
     <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
   </si>
   <si>
     <t>0,97%</t>
   </si>
   <si>
-    <t>4,73%</t>
+    <t>5,27%</t>
   </si>
   <si>
     <t>1,11%</t>
@@ -422,112 +422,103 @@
     <t>99,03%</t>
   </si>
   <si>
-    <t>95,27%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
   </si>
   <si>
     <t>0,63%</t>
   </si>
   <si>
-    <t>97,73%</t>
+    <t>97,68%</t>
   </si>
   <si>
     <t>0,23%</t>
   </si>
   <si>
-    <t>1,13%</t>
+    <t>1,14%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,29%</t>
+    <t>1,42%</t>
   </si>
   <si>
     <t>99,52%</t>
   </si>
   <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>98,07%</t>
   </si>
   <si>
-    <t>96,71%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
   </si>
   <si>
     <t>4,81%</t>
   </si>
   <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>0,12%</t>
   </si>
   <si>
-    <t>0,6%</t>
+    <t>0,59%</t>
   </si>
   <si>
     <t>22,09%</t>
   </si>
   <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
+    <t>19,53%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
   </si>
   <si>
     <t>77,79%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>80,3%</t>
+    <t>75,18%</t>
+  </si>
+  <si>
+    <t>80,37%</t>
   </si>
   <si>
     <t>0,39%</t>
   </si>
   <si>
-    <t>0,19%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
+    <t>0,77%</t>
   </si>
   <si>
     <t>5,75%</t>
@@ -542,10 +533,10 @@
     <t>93,86%</t>
   </si>
   <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
   </si>
 </sst>
 </file>
@@ -957,7 +948,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1301FF5-E99A-49D2-BC70-F60DD37E5F18}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47800B91-9D11-4225-A19F-128A9C3704A8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2318,13 +2309,13 @@
         <v>106188</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2346,13 +2337,13 @@
         <v>106188</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2367,13 +2358,13 @@
         <v>3170356</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2395,13 +2386,13 @@
         <v>3170356</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2455,7 +2446,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -2477,7 +2468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3799350-EC77-4EFD-9A87-7CE4A482007D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089209AD-F8BE-4D2D-ABD4-F00625181E8F}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2494,7 +2485,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2607,7 +2598,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2635,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2656,7 +2647,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2684,7 +2675,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2702,7 +2693,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -2730,7 +2721,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>19</v>
@@ -2805,7 +2796,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2833,7 +2824,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2854,7 +2845,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2882,7 +2873,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2900,7 +2891,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -2928,7 +2919,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -3003,7 +2994,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3031,7 +3022,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3046,13 +3037,13 @@
         <v>2170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3074,13 +3065,13 @@
         <v>2170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,10 +3086,10 @@
         <v>679693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3123,10 +3114,10 @@
         <v>679693</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3201,7 +3192,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3229,7 +3220,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3250,7 +3241,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3278,7 +3269,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3296,7 +3287,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>19</v>
@@ -3324,7 +3315,7 @@
         <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>19</v>
@@ -3442,13 +3433,13 @@
         <v>21775</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3470,13 +3461,13 @@
         <v>21775</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3491,13 +3482,13 @@
         <v>407654</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>60</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3519,13 +3510,13 @@
         <v>407654</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3966,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -3997,7 +3988,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{258EF2B4-A74C-4AC6-8414-B7FF27EA04F9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B57E55-F461-459F-9792-F36D407185DD}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4566,7 +4557,7 @@
         <v>1970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
@@ -4594,7 +4585,7 @@
         <v>1970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
@@ -4615,7 +4606,7 @@
         <v>667127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>97</v>
@@ -4643,7 +4634,7 @@
         <v>667127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>97</v>
@@ -5495,7 +5486,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -5517,7 +5508,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{666DA883-9BDE-4CE3-BD60-662ACBA05D6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1173F0EF-0D89-4951-967E-D0F1EDB15345}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5839,7 +5830,7 @@
         <v>1856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
@@ -5867,7 +5858,7 @@
         <v>1856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
@@ -5937,7 +5928,7 @@
         <v>426540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>130</v>
@@ -5965,7 +5956,7 @@
         <v>426540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>130</v>
@@ -6238,10 +6229,10 @@
         <v>41</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6266,10 +6257,10 @@
         <v>41</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6284,13 +6275,13 @@
         <v>10364</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6312,13 +6303,13 @@
         <v>10364</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6333,13 +6324,13 @@
         <v>707130</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6361,13 +6352,13 @@
         <v>707130</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6433,13 +6424,13 @@
         <v>1913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6461,13 +6452,13 @@
         <v>1913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6482,13 +6473,13 @@
         <v>28808</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6510,13 +6501,13 @@
         <v>28808</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6531,13 +6522,13 @@
         <v>567737</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6559,13 +6550,13 @@
         <v>567737</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6631,13 +6622,13 @@
         <v>833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6659,13 +6650,13 @@
         <v>833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6680,13 +6671,13 @@
         <v>153805</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6708,13 +6699,13 @@
         <v>153805</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6729,13 +6720,13 @@
         <v>541578</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6757,13 +6748,13 @@
         <v>541578</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>157</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6829,13 +6820,13 @@
         <v>13070</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6857,13 +6848,13 @@
         <v>13070</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>161</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6878,13 +6869,13 @@
         <v>194387</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6906,13 +6897,13 @@
         <v>194387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6927,13 +6918,13 @@
         <v>3170265</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6955,13 +6946,13 @@
         <v>3170265</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +7006,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1434-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37EA7C3A-0E10-48B8-B1AB-777318FC9AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD3F1081-730B-4963-9CC8-EE5B2852769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1139B6AA-CD16-4410-B8F3-623C0F79B118}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BBC4665-0477-460C-8F39-98A2EAB52564}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="170">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -110,301 +110,313 @@
     <t>0,13%</t>
   </si>
   <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>0,31%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>99,83%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>99,18%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>99,82%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>96,75%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,14%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,86%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>0,06%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>97,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>21,53%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,47%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>99,66%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>99,09%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
     <t>0,68%</t>
   </si>
   <si>
-    <t>99,87%</t>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
   </si>
   <si>
     <t>99,32%</t>
   </si>
   <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>0,31%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>99,83%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>0,82%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>99,18%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
-  </si>
-  <si>
-    <t>86,95%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>98,21%</t>
+  </si>
+  <si>
+    <t>99,85%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,67%</t>
+  </si>
+  <si>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>97,33%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,47%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>18,28%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>81,72%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
   </si>
   <si>
     <t>3,83%</t>
   </si>
   <si>
+    <t>96,79%</t>
+  </si>
+  <si>
     <t>96,17%</t>
   </si>
   <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,56%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,44%</t>
-  </si>
-  <si>
-    <t>85,33%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2015 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
-    <t>99,51%</t>
-  </si>
-  <si>
-    <t>0,34%</t>
-  </si>
-  <si>
-    <t>99,66%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>97,29%</t>
+    <t>97,35%</t>
   </si>
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
@@ -948,7 +960,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47800B91-9D11-4225-A19F-128A9C3704A8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60646C-C785-4F66-A01D-ACF930ABAC7C}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2309,13 +2321,13 @@
         <v>106188</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -2337,13 +2349,13 @@
         <v>106188</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2355,16 +2367,16 @@
         <v>3103</v>
       </c>
       <c r="D30" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -2383,16 +2395,16 @@
         <v>3103</v>
       </c>
       <c r="N30" s="7">
-        <v>3170356</v>
+        <v>3170355</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,7 +2416,7 @@
         <v>3214</v>
       </c>
       <c r="D31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E31" s="7" t="s">
         <v>19</v>
@@ -2432,7 +2444,7 @@
         <v>3214</v>
       </c>
       <c r="N31" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>19</v>
@@ -2446,7 +2458,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -2468,7 +2480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{089209AD-F8BE-4D2D-ABD4-F00625181E8F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F259CBC-20A0-45B1-90D5-0701EC4284E7}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2485,7 +2497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2598,7 +2610,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2626,7 +2638,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,7 +2659,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2675,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2693,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -2721,7 +2733,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>19</v>
@@ -2796,7 +2808,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2824,7 +2836,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2845,7 +2857,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2873,7 +2885,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2891,7 +2903,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -2919,7 +2931,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -2994,7 +3006,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3022,7 +3034,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3037,13 +3049,13 @@
         <v>2170</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3065,13 +3077,13 @@
         <v>2170</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3086,10 +3098,10 @@
         <v>679693</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -3114,10 +3126,10 @@
         <v>679693</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -3192,7 +3204,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3220,7 +3232,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3253,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3269,7 +3281,7 @@
         <v>12</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,7 +3299,7 @@
         <v>17</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>19</v>
@@ -3315,7 +3327,7 @@
         <v>17</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q18" s="7" t="s">
         <v>19</v>
@@ -3433,13 +3445,13 @@
         <v>21775</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3461,13 +3473,13 @@
         <v>21775</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,13 +3494,13 @@
         <v>407654</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3510,13 +3522,13 @@
         <v>407654</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3631,13 +3643,13 @@
         <v>100465</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -3659,13 +3671,13 @@
         <v>100465</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3692,13 @@
         <v>456981</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -3708,13 +3720,13 @@
         <v>456981</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3829,13 +3841,13 @@
         <v>124409</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -3857,13 +3869,13 @@
         <v>124409</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,13 +3890,13 @@
         <v>3300178</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -3906,13 +3918,13 @@
         <v>3300178</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3966,7 +3978,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3988,7 +4000,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3B57E55-F461-459F-9792-F36D407185DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C687CE97-B484-4F03-8BD7-AF57467CB26D}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4005,7 +4017,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4213,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>19</v>
@@ -4241,7 +4253,7 @@
         <v>17</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>19</v>
@@ -4316,7 +4328,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4344,7 +4356,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4365,7 +4377,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4393,7 +4405,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4411,7 +4423,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>19</v>
@@ -4439,7 +4451,7 @@
         <v>17</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>19</v>
@@ -4514,7 +4526,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4542,7 +4554,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4569,13 @@
         <v>1970</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4585,13 +4597,13 @@
         <v>1970</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4606,10 +4618,10 @@
         <v>667127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -4634,10 +4646,10 @@
         <v>667127</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -4712,7 +4724,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4740,7 +4752,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4767,13 @@
         <v>4401</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4783,13 +4795,13 @@
         <v>4401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4816,13 @@
         <v>641647</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4832,13 +4844,13 @@
         <v>641647</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4910,7 +4922,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4938,7 +4950,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4953,13 +4965,13 @@
         <v>12781</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4981,13 +4993,13 @@
         <v>12781</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5002,13 +5014,13 @@
         <v>465137</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5030,13 +5042,13 @@
         <v>465137</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5151,13 +5163,13 @@
         <v>89850</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -5179,13 +5191,13 @@
         <v>89850</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,13 +5212,13 @@
         <v>501478</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -5228,13 +5240,13 @@
         <v>501478</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,13 +5361,13 @@
         <v>109002</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -5377,13 +5389,13 @@
         <v>109002</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5398,13 +5410,13 @@
         <v>3285348</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -5426,13 +5438,13 @@
         <v>3285348</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5486,7 +5498,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -5508,7 +5520,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1173F0EF-0D89-4951-967E-D0F1EDB15345}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D55975-089B-4126-A32B-D62051BBD859}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5525,7 +5537,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5632,13 +5644,13 @@
         <v>3667</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5660,13 +5672,13 @@
         <v>3667</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,7 +5699,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5715,7 +5727,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5730,10 +5742,10 @@
         <v>374012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>17</v>
@@ -5758,10 +5770,10 @@
         <v>374012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>17</v>
@@ -5830,13 +5842,13 @@
         <v>1856</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5858,13 +5870,13 @@
         <v>1856</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5885,7 +5897,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5913,7 +5925,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5928,10 +5940,10 @@
         <v>426540</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>17</v>
@@ -5956,10 +5968,10 @@
         <v>426540</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>17</v>
@@ -6028,13 +6040,13 @@
         <v>1258</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6056,13 +6068,13 @@
         <v>1258</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6077,13 +6089,13 @@
         <v>1411</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6105,13 +6117,13 @@
         <v>1411</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6126,10 +6138,10 @@
         <v>553267</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>17</v>
@@ -6154,10 +6166,10 @@
         <v>553267</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>17</v>
@@ -6232,7 +6244,7 @@
         <v>22</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6260,7 +6272,7 @@
         <v>22</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6275,13 +6287,13 @@
         <v>10364</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6303,13 +6315,13 @@
         <v>10364</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6324,13 +6336,13 @@
         <v>707130</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6352,13 +6364,13 @@
         <v>707130</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>47</v>
+        <v>60</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6436,13 @@
         <v>1913</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6452,13 +6464,13 @@
         <v>1913</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6473,13 +6485,13 @@
         <v>28808</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6501,13 +6513,13 @@
         <v>28808</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6522,13 +6534,13 @@
         <v>567737</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6550,13 +6562,13 @@
         <v>567737</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6622,13 +6634,13 @@
         <v>833</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6650,13 +6662,13 @@
         <v>833</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6671,13 +6683,13 @@
         <v>153805</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="H25" s="7">
         <v>0</v>
@@ -6699,13 +6711,13 @@
         <v>153805</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6720,13 +6732,13 @@
         <v>541578</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="H26" s="7">
         <v>0</v>
@@ -6748,13 +6760,13 @@
         <v>541578</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6820,13 +6832,13 @@
         <v>13070</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
         <v>0</v>
@@ -6848,13 +6860,13 @@
         <v>13070</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
         <v>35</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6869,13 +6881,13 @@
         <v>194387</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H29" s="7">
         <v>0</v>
@@ -6897,13 +6909,13 @@
         <v>194387</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6918,13 +6930,13 @@
         <v>3170265</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="H30" s="7">
         <v>0</v>
@@ -6946,13 +6958,13 @@
         <v>3170265</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7006,7 +7018,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1434-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD3F1081-730B-4963-9CC8-EE5B2852769D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAE3119-F86B-4122-92FA-1FD59F890BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8BBC4665-0477-460C-8F39-98A2EAB52564}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE31C4DC-AF70-44F2-9691-CB2295F7EDF6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="146">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>16/24</t>
   </si>
   <si>
-    <t>No recogida</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>0,0%</t>
@@ -86,9 +86,6 @@
     <t>—%</t>
   </si>
   <si>
-    <t>Si</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -104,225 +101,204 @@
     <t>25/34</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>0,13%</t>
   </si>
   <si>
-    <t>0,86%</t>
+    <t>0,68%</t>
   </si>
   <si>
     <t>99,87%</t>
   </si>
   <si>
-    <t>99,14%</t>
+    <t>99,32%</t>
   </si>
   <si>
     <t>35/44</t>
   </si>
   <si>
-    <t>0,31%</t>
-  </si>
-  <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>1,05%</t>
+    <t>1,06%</t>
   </si>
   <si>
     <t>99,83%</t>
   </si>
   <si>
-    <t>98,95%</t>
+    <t>98,94%</t>
   </si>
   <si>
     <t>45/54</t>
   </si>
   <si>
-    <t>0,4%</t>
-  </si>
-  <si>
     <t>0,82%</t>
   </si>
   <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
   </si>
   <si>
     <t>99,18%</t>
   </si>
   <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>99,82%</t>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>99,84%</t>
   </si>
   <si>
     <t>55/64</t>
   </si>
   <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>15,95%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>19,11%</t>
+  </si>
+  <si>
+    <t>84,05%</t>
+  </si>
+  <si>
+    <t>80,89%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>99,71%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>99,68%</t>
+  </si>
+  <si>
+    <t>98,23%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>92,67%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>81,98%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>85,46%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>95,68%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
+  </si>
+  <si>
     <t>0,49%</t>
   </si>
   <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>96,75%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>0,37%</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>19,14%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,86%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>0,06%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>2,72%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2012 (Tasa respuesta: 49,3%)</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>0,29%</t>
-  </si>
-  <si>
-    <t>99,71%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>99,68%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>18,02%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>21,53%</t>
-  </si>
-  <si>
-    <t>81,98%</t>
-  </si>
-  <si>
-    <t>78,47%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2016 (Tasa respuesta: 49,19%)</t>
-  </si>
-  <si>
     <t>99,51%</t>
   </si>
   <si>
@@ -332,223 +308,175 @@
     <t>99,66%</t>
   </si>
   <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
+    <t>0,93%</t>
+  </si>
+  <si>
+    <t>99,07%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,21%</t>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>98,36%</t>
   </si>
   <si>
     <t>99,85%</t>
   </si>
   <si>
-    <t>0,45%</t>
-  </si>
-  <si>
     <t>2,67%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
   </si>
   <si>
     <t>97,33%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
   </si>
   <si>
     <t>15,19%</t>
   </si>
   <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>18,28%</t>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>84,81%</t>
   </si>
   <si>
-    <t>81,72%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>87,64%</t>
   </si>
   <si>
     <t>3,21%</t>
   </si>
   <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
   </si>
   <si>
     <t>96,79%</t>
   </si>
   <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>97,35%</t>
-  </si>
-  <si>
-    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,52%)</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>Población con diagnóstico de trastornos de próstata en 2023 (Tasa respuesta: 38,42%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
   </si>
   <si>
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>99,52%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>99,75%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
   </si>
   <si>
     <t>1,44%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>22,09%</t>
-  </si>
-  <si>
-    <t>19,53%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>80,37%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>98,56%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>99,27%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>93,28%</t>
+  </si>
+  <si>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>75,35%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
 </sst>
 </file>
@@ -960,8 +888,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B60646C-C785-4F66-A01D-ACF930ABAC7C}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D368F-03B0-4BDE-AD5F-20C23DA10770}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1127,19 +1055,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>494064</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -1155,25 +1083,25 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>499</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>494064</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>499</v>
@@ -1182,13 +1110,13 @@
         <v>494064</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1210,34 +1138,36 @@
         <v>494064</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
         <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="D7" s="7">
-        <v>494064</v>
+        <v>986</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -1253,42 +1183,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>499</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>494064</v>
+        <v>986</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>734503</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1304,40 +1232,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>734503</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>703</v>
       </c>
       <c r="D9" s="7">
-        <v>986</v>
+        <v>735489</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -1353,40 +1281,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
+        <v>703</v>
+      </c>
+      <c r="N9" s="7">
+        <v>735489</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
         <v>1</v>
       </c>
-      <c r="N9" s="7">
-        <v>986</v>
-      </c>
-      <c r="O9" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="P9" s="7" t="s">
+      <c r="D10" s="7">
+        <v>1085</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>702</v>
-      </c>
-      <c r="D10" s="7">
-        <v>734503</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>25</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -1402,40 +1332,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>702</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>734503</v>
+        <v>1085</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>703</v>
+        <v>612</v>
       </c>
       <c r="D11" s="7">
-        <v>735489</v>
+        <v>637583</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -1451,42 +1381,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>703</v>
+        <v>612</v>
       </c>
       <c r="N11" s="7">
-        <v>735489</v>
+        <v>637583</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>638668</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -1502,40 +1430,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>613</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>638668</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1085</v>
+        <v>4273</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -1551,40 +1481,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1085</v>
+        <v>4273</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>612</v>
+        <v>480</v>
       </c>
       <c r="D14" s="7">
-        <v>637583</v>
+        <v>514874</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -1600,19 +1530,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>612</v>
+        <v>480</v>
       </c>
       <c r="N14" s="7">
-        <v>637583</v>
+        <v>514874</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1621,19 +1551,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="D15" s="7">
-        <v>638668</v>
+        <v>519147</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -1649,42 +1579,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="N15" s="7">
-        <v>638668</v>
+        <v>519147</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>19715</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -1700,19 +1630,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>19715</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1721,19 +1651,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="D17" s="7">
-        <v>4273</v>
+        <v>366995</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -1749,40 +1679,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>371</v>
       </c>
       <c r="N17" s="7">
-        <v>4273</v>
+        <v>366995</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="D18" s="7">
-        <v>514874</v>
+        <v>386710</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -1798,40 +1728,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>480</v>
+        <v>392</v>
       </c>
       <c r="N18" s="7">
-        <v>514874</v>
+        <v>386710</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>484</v>
+        <v>84</v>
       </c>
       <c r="D19" s="7">
-        <v>519147</v>
+        <v>80129</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -1847,42 +1779,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>484</v>
+        <v>84</v>
       </c>
       <c r="N19" s="7">
-        <v>519147</v>
+        <v>80129</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>422337</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -1898,40 +1828,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>422337</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>48</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>523</v>
       </c>
       <c r="D21" s="7">
-        <v>19715</v>
+        <v>502466</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -1947,40 +1877,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>21</v>
+        <v>523</v>
       </c>
       <c r="N21" s="7">
-        <v>19715</v>
+        <v>502466</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>44</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="D22" s="7">
-        <v>366995</v>
+        <v>106188</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1996,40 +1928,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>371</v>
+        <v>111</v>
       </c>
       <c r="N22" s="7">
-        <v>366995</v>
+        <v>106188</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>392</v>
+        <v>3103</v>
       </c>
       <c r="D23" s="7">
-        <v>386710</v>
+        <v>3170356</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -2045,42 +1977,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>392</v>
+        <v>3103</v>
       </c>
       <c r="N23" s="7">
-        <v>386710</v>
+        <v>3170356</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>3276544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2096,392 +2026,47 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3214</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3276544</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>49</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>84</v>
-      </c>
-      <c r="D25" s="7">
-        <v>80129</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>84</v>
-      </c>
-      <c r="N25" s="7">
-        <v>80129</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>439</v>
-      </c>
-      <c r="D26" s="7">
-        <v>422337</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>439</v>
-      </c>
-      <c r="N26" s="7">
-        <v>422337</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>523</v>
-      </c>
-      <c r="D27" s="7">
-        <v>502466</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>523</v>
-      </c>
-      <c r="N27" s="7">
-        <v>502466</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="A25" t="s">
         <v>56</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>111</v>
-      </c>
-      <c r="D29" s="7">
-        <v>106188</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="7">
-        <v>111</v>
-      </c>
-      <c r="N29" s="7">
-        <v>106188</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3103</v>
-      </c>
-      <c r="D30" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3103</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3170355</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3214</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3276543</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F259CBC-20A0-45B1-90D5-0701EC4284E7}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291FD85-CAF7-4F69-AF72-AC7996C7600B}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2497,7 +2082,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2610,7 +2195,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2638,7 +2223,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2647,19 +2232,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>454146</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -2675,25 +2260,25 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>454146</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>65</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>446</v>
@@ -2702,13 +2287,13 @@
         <v>454146</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -2730,34 +2315,36 @@
         <v>454146</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>66</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>454146</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2773,42 +2360,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>446</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>454146</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>687087</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -2824,40 +2409,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>687087</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>687087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -2873,40 +2458,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>667</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>687087</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2170</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>667</v>
-      </c>
-      <c r="D10" s="7">
-        <v>687087</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>68</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2922,40 +2509,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>667</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>687087</v>
+        <v>2170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>68</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="D11" s="7">
-        <v>687087</v>
+        <v>679693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -2971,42 +2558,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>667</v>
+        <v>650</v>
       </c>
       <c r="N11" s="7">
-        <v>687087</v>
+        <v>679693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>681863</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -3022,40 +2607,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>681863</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="7">
+        <v>0</v>
+      </c>
+      <c r="D13" s="7">
+        <v>0</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="F13" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="Q12" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="7">
-        <v>1</v>
-      </c>
-      <c r="D13" s="7">
-        <v>2170</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3071,40 +2658,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N13" s="7">
-        <v>2170</v>
+        <v>0</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>69</v>
+        <v>11</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="7">
+        <v>548</v>
+      </c>
+      <c r="D14" s="7">
+        <v>614617</v>
+      </c>
+      <c r="E14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="7">
-        <v>650</v>
-      </c>
-      <c r="D14" s="7">
-        <v>679693</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>71</v>
-      </c>
       <c r="F14" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3120,19 +2707,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>650</v>
+        <v>548</v>
       </c>
       <c r="N14" s="7">
-        <v>679693</v>
+        <v>614617</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>71</v>
+        <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3141,19 +2728,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>651</v>
+        <v>548</v>
       </c>
       <c r="D15" s="7">
-        <v>681863</v>
+        <v>614617</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -3169,42 +2756,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>651</v>
+        <v>548</v>
       </c>
       <c r="N15" s="7">
-        <v>681863</v>
+        <v>614617</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>21775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3220,19 +2807,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>21775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>68</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,19 +2828,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>407654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -3269,40 +2856,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="N17" s="7">
-        <v>0</v>
+        <v>407654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="D18" s="7">
-        <v>614617</v>
+        <v>429429</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>74</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -3318,40 +2905,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>548</v>
+        <v>393</v>
       </c>
       <c r="N18" s="7">
-        <v>614617</v>
+        <v>429429</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C19" s="7">
+        <v>90</v>
+      </c>
+      <c r="D19" s="7">
+        <v>100465</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="7">
-        <v>548</v>
-      </c>
-      <c r="D19" s="7">
-        <v>614617</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3367,42 +2956,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>548</v>
+        <v>90</v>
       </c>
       <c r="N19" s="7">
-        <v>614617</v>
+        <v>100465</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>72</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>456981</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3418,40 +3005,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>456981</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>41</v>
+        <v>77</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>21</v>
+        <v>503</v>
       </c>
       <c r="D21" s="7">
-        <v>21775</v>
+        <v>557446</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -3467,31 +3054,33 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>21</v>
+        <v>503</v>
       </c>
       <c r="N21" s="7">
-        <v>21775</v>
+        <v>557446</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>76</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>77</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>372</v>
+        <v>112</v>
       </c>
       <c r="D22" s="7">
-        <v>407654</v>
+        <v>124409</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>78</v>
@@ -3516,10 +3105,10 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>372</v>
+        <v>112</v>
       </c>
       <c r="N22" s="7">
-        <v>407654</v>
+        <v>124409</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>78</v>
@@ -3534,22 +3123,22 @@
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>393</v>
+        <v>3096</v>
       </c>
       <c r="D23" s="7">
-        <v>429429</v>
+        <v>3300178</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3565,42 +3154,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>393</v>
+        <v>3096</v>
       </c>
       <c r="N23" s="7">
-        <v>429429</v>
+        <v>3300178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3208</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>3424587</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -3616,392 +3203,47 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3208</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3424587</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>90</v>
-      </c>
-      <c r="D25" s="7">
-        <v>100465</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>90</v>
-      </c>
-      <c r="N25" s="7">
-        <v>100465</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>413</v>
-      </c>
-      <c r="D26" s="7">
-        <v>456981</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>413</v>
-      </c>
-      <c r="N26" s="7">
-        <v>456981</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>503</v>
-      </c>
-      <c r="D27" s="7">
-        <v>557446</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>503</v>
-      </c>
-      <c r="N27" s="7">
-        <v>557446</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="A25" t="s">
         <v>56</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>112</v>
-      </c>
-      <c r="D29" s="7">
-        <v>124409</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="7">
-        <v>112</v>
-      </c>
-      <c r="N29" s="7">
-        <v>124409</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3096</v>
-      </c>
-      <c r="D30" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3096</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3300178</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3208</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3208</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3424587</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C687CE97-B484-4F03-8BD7-AF57467CB26D}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE55E12-946A-43B2-9CF5-139B6E424CE4}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4017,7 +3259,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4130,7 +3372,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4158,7 +3400,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4167,19 +3409,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>419463</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4195,25 +3437,25 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>393</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>419463</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>41</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>393</v>
@@ -4222,13 +3464,13 @@
         <v>419463</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -4250,34 +3492,36 @@
         <v>419463</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>94</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>419463</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4293,42 +3537,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>393</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>419463</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>590496</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4344,40 +3586,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>590496</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>88</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>590496</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>95</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -4393,40 +3635,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>567</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>590496</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>2</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1970</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>567</v>
-      </c>
-      <c r="D10" s="7">
-        <v>590496</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>96</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4442,40 +3686,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>567</v>
+        <v>2</v>
       </c>
       <c r="N10" s="7">
-        <v>590496</v>
+        <v>1970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>17</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="D11" s="7">
-        <v>590496</v>
+        <v>667127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -4491,42 +3735,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>567</v>
+        <v>636</v>
       </c>
       <c r="N11" s="7">
-        <v>590496</v>
+        <v>667127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>90</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>669097</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -4542,40 +3784,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>0</v>
+        <v>638</v>
       </c>
       <c r="N12" s="7">
-        <v>0</v>
+        <v>669097</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>97</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>1970</v>
+        <v>4401</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -4591,40 +3835,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>1970</v>
+        <v>4401</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>91</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="D14" s="7">
-        <v>667127</v>
+        <v>641647</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -4640,19 +3884,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>636</v>
+        <v>578</v>
       </c>
       <c r="N14" s="7">
-        <v>667127</v>
+        <v>641647</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,19 +3905,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="D15" s="7">
-        <v>669097</v>
+        <v>646048</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -4689,42 +3933,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>638</v>
+        <v>582</v>
       </c>
       <c r="N15" s="7">
-        <v>669097</v>
+        <v>646048</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>12781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -4740,19 +3984,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>12781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4761,19 +4005,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="D17" s="7">
-        <v>4401</v>
+        <v>465137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4789,40 +4033,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>412</v>
       </c>
       <c r="N17" s="7">
-        <v>4401</v>
+        <v>465137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>578</v>
+        <v>424</v>
       </c>
       <c r="D18" s="7">
-        <v>641647</v>
+        <v>477918</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -4838,40 +4082,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>578</v>
+        <v>424</v>
       </c>
       <c r="N18" s="7">
-        <v>641647</v>
+        <v>477918</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>104</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>582</v>
+        <v>96</v>
       </c>
       <c r="D19" s="7">
-        <v>646048</v>
+        <v>89850</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4887,42 +4133,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>582</v>
+        <v>96</v>
       </c>
       <c r="N19" s="7">
-        <v>646048</v>
+        <v>89850</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>101</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>501478</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4938,40 +4182,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="N20" s="7">
-        <v>0</v>
+        <v>501478</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>11</v>
+        <v>104</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>12</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>12</v>
+        <v>627</v>
       </c>
       <c r="D21" s="7">
-        <v>12781</v>
+        <v>591328</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>110</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -4987,40 +4231,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>12</v>
+        <v>627</v>
       </c>
       <c r="N21" s="7">
-        <v>12781</v>
+        <v>591328</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="7">
+        <v>114</v>
+      </c>
+      <c r="D22" s="7">
+        <v>109002</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="P21" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="7">
-        <v>412</v>
-      </c>
-      <c r="D22" s="7">
-        <v>465137</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5036,40 +4282,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>412</v>
+        <v>114</v>
       </c>
       <c r="N22" s="7">
-        <v>465137</v>
+        <v>109002</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>424</v>
+        <v>3117</v>
       </c>
       <c r="D23" s="7">
-        <v>477918</v>
+        <v>3285348</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5085,42 +4331,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>424</v>
+        <v>3117</v>
       </c>
       <c r="N23" s="7">
-        <v>477918</v>
+        <v>3285348</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>3231</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>3394350</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -5136,392 +4380,47 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>0</v>
+        <v>3231</v>
       </c>
       <c r="N24" s="7">
-        <v>0</v>
+        <v>3394350</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>96</v>
-      </c>
-      <c r="D25" s="7">
-        <v>89850</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>96</v>
-      </c>
-      <c r="N25" s="7">
-        <v>89850</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>531</v>
-      </c>
-      <c r="D26" s="7">
-        <v>501478</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>531</v>
-      </c>
-      <c r="N26" s="7">
-        <v>501478</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>627</v>
-      </c>
-      <c r="D27" s="7">
-        <v>591328</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>627</v>
-      </c>
-      <c r="N27" s="7">
-        <v>591328</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G28" s="7" t="s">
+      <c r="A25" t="s">
         <v>56</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="7">
-        <v>0</v>
-      </c>
-      <c r="N28" s="7">
-        <v>0</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>114</v>
-      </c>
-      <c r="D29" s="7">
-        <v>109002</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="7">
-        <v>114</v>
-      </c>
-      <c r="N29" s="7">
-        <v>109002</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3117</v>
-      </c>
-      <c r="D30" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3117</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3285348</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3231</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D55975-089B-4126-A32B-D62051BBD859}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FE9F5-8B2F-4A24-8132-5BF959F8B9DE}">
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5537,7 +4436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5638,19 +4537,19 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>3667</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5666,19 +4565,19 @@
         <v>14</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N4" s="7">
-        <v>3667</v>
+        <v>0</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5687,19 +4586,19 @@
         <v>15</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>374012</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5715,25 +4614,25 @@
         <v>14</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>374012</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>129</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C6" s="7">
         <v>171</v>
@@ -5742,13 +4641,13 @@
         <v>374012</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5770,34 +4669,36 @@
         <v>374012</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>130</v>
+        <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>131</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>19</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -5813,42 +4714,40 @@
         <v>14</v>
       </c>
       <c r="M7" s="7">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>377679</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>19</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>20</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C8" s="7">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>1856</v>
+        <v>426540</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -5864,40 +4763,40 @@
         <v>14</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>1856</v>
+        <v>426540</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>65</v>
+        <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>117</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>132</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>426540</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -5913,40 +4812,42 @@
         <v>14</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>426540</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="7">
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <v>1411</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="P9" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="7">
-        <v>301</v>
-      </c>
-      <c r="D10" s="7">
-        <v>426540</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="G10" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5962,40 +4863,40 @@
         <v>14</v>
       </c>
       <c r="M10" s="7">
-        <v>301</v>
+        <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>426540</v>
+        <v>1411</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C11" s="7">
-        <v>302</v>
+        <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>553267</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="H11" s="7">
         <v>0</v>
@@ -6011,42 +4912,40 @@
         <v>14</v>
       </c>
       <c r="M11" s="7">
-        <v>302</v>
+        <v>543</v>
       </c>
       <c r="N11" s="7">
-        <v>428396</v>
+        <v>553267</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>1258</v>
+        <v>554678</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6062,40 +4961,42 @@
         <v>14</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>544</v>
       </c>
       <c r="N12" s="7">
-        <v>1258</v>
+        <v>554678</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>29</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>1411</v>
+        <v>10364</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6111,40 +5012,40 @@
         <v>14</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>1411</v>
+        <v>10364</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="7">
-        <v>543</v>
+        <v>649</v>
       </c>
       <c r="D14" s="7">
-        <v>553267</v>
+        <v>707130</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -6160,19 +5061,19 @@
         <v>14</v>
       </c>
       <c r="M14" s="7">
-        <v>543</v>
+        <v>649</v>
       </c>
       <c r="N14" s="7">
-        <v>553267</v>
+        <v>707130</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>139</v>
+        <v>125</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>17</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6181,19 +5082,19 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="D15" s="7">
-        <v>555936</v>
+        <v>717494</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H15" s="7">
         <v>0</v>
@@ -6209,42 +5110,42 @@
         <v>14</v>
       </c>
       <c r="M15" s="7">
-        <v>545</v>
+        <v>659</v>
       </c>
       <c r="N15" s="7">
-        <v>555936</v>
+        <v>717494</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>3543</v>
+        <v>28808</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6260,19 +5161,19 @@
         <v>14</v>
       </c>
       <c r="M16" s="7">
-        <v>3</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>3543</v>
+        <v>28808</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>22</v>
+        <v>129</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,19 +5182,19 @@
         <v>15</v>
       </c>
       <c r="C17" s="7">
-        <v>10</v>
+        <v>626</v>
       </c>
       <c r="D17" s="7">
-        <v>10364</v>
+        <v>567737</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -6309,40 +5210,40 @@
         <v>14</v>
       </c>
       <c r="M17" s="7">
-        <v>10</v>
+        <v>626</v>
       </c>
       <c r="N17" s="7">
-        <v>10364</v>
+        <v>567737</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="D18" s="7">
-        <v>707130</v>
+        <v>596545</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7">
         <v>0</v>
@@ -6358,40 +5259,42 @@
         <v>14</v>
       </c>
       <c r="M18" s="7">
-        <v>649</v>
+        <v>659</v>
       </c>
       <c r="N18" s="7">
-        <v>707130</v>
+        <v>596545</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>145</v>
+        <v>18</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>146</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="B19" s="5" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>662</v>
+        <v>234</v>
       </c>
       <c r="D19" s="7">
-        <v>721037</v>
+        <v>153805</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -6407,42 +5310,40 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>662</v>
+        <v>234</v>
       </c>
       <c r="N19" s="7">
-        <v>721037</v>
+        <v>153805</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>19</v>
+        <v>135</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>19</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>40</v>
-      </c>
+      <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>2</v>
+        <v>791</v>
       </c>
       <c r="D20" s="7">
-        <v>1913</v>
+        <v>541579</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -6458,40 +5359,40 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>791</v>
       </c>
       <c r="N20" s="7">
-        <v>1913</v>
+        <v>541579</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>138</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>33</v>
+        <v>1025</v>
       </c>
       <c r="D21" s="7">
-        <v>28808</v>
+        <v>695384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
       <c r="H21" s="7">
         <v>0</v>
@@ -6507,40 +5408,42 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>33</v>
+        <v>1025</v>
       </c>
       <c r="N21" s="7">
-        <v>28808</v>
+        <v>695384</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>148</v>
+        <v>18</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>149</v>
+        <v>18</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1" t="s">
+        <v>3</v>
+      </c>
       <c r="B22" s="5" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>626</v>
+        <v>278</v>
       </c>
       <c r="D22" s="7">
-        <v>567737</v>
+        <v>194387</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -6556,40 +5459,40 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>626</v>
+        <v>278</v>
       </c>
       <c r="N22" s="7">
-        <v>567737</v>
+        <v>194387</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>661</v>
+        <v>3081</v>
       </c>
       <c r="D23" s="7">
-        <v>598458</v>
+        <v>3170265</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -6605,42 +5508,40 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>661</v>
+        <v>3081</v>
       </c>
       <c r="N23" s="7">
-        <v>598458</v>
+        <v>3170265</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>19</v>
+        <v>144</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>19</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>1</v>
+        <v>3359</v>
       </c>
       <c r="D24" s="7">
-        <v>833</v>
+        <v>3364652</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -6656,384 +5557,39 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
-        <v>1</v>
+        <v>3359</v>
       </c>
       <c r="N24" s="7">
-        <v>833</v>
+        <v>3364652</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>154</v>
+        <v>18</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>155</v>
+        <v>18</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7">
-        <v>234</v>
-      </c>
-      <c r="D25" s="7">
-        <v>153805</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7"/>
-      <c r="J25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M25" s="7">
-        <v>234</v>
-      </c>
-      <c r="N25" s="7">
-        <v>153805</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="7">
-        <v>791</v>
-      </c>
-      <c r="D26" s="7">
-        <v>541578</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7"/>
-      <c r="J26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M26" s="7">
-        <v>791</v>
-      </c>
-      <c r="N26" s="7">
-        <v>541578</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>1026</v>
-      </c>
-      <c r="D27" s="7">
-        <v>696217</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7"/>
-      <c r="J27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1026</v>
-      </c>
-      <c r="N27" s="7">
-        <v>696217</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C28" s="7">
-        <v>9</v>
-      </c>
-      <c r="D28" s="7">
-        <v>13070</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7"/>
-      <c r="J28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M28" s="7">
-        <v>9</v>
-      </c>
-      <c r="N28" s="7">
-        <v>13070</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7">
-        <v>278</v>
-      </c>
-      <c r="D29" s="7">
-        <v>194387</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H29" s="7">
-        <v>0</v>
-      </c>
-      <c r="I29" s="7"/>
-      <c r="J29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M29" s="7">
-        <v>278</v>
-      </c>
-      <c r="N29" s="7">
-        <v>194387</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" s="7">
-        <v>3081</v>
-      </c>
-      <c r="D30" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7"/>
-      <c r="J30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M30" s="7">
-        <v>3081</v>
-      </c>
-      <c r="N30" s="7">
-        <v>3170265</v>
-      </c>
-      <c r="O30" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="7">
-        <v>3368</v>
-      </c>
-      <c r="D31" s="7">
-        <v>3377723</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7"/>
-      <c r="J31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M31" s="7">
-        <v>3368</v>
-      </c>
-      <c r="N31" s="7">
-        <v>3377723</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>63</v>
+      <c r="A25" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A12:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
-    <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A24"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="M1:Q1"/>
-    <mergeCell ref="A4:A7"/>
-    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_orig/P1434-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P1434-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FCAE3119-F86B-4122-92FA-1FD59F890BDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E620C685-8954-4CB0-BF00-10C139C1E5FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{EE31C4DC-AF70-44F2-9691-CB2295F7EDF6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{00AEEC05-5326-47C4-A9AC-5E709DF5A77D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1072" uniqueCount="169">
   <si>
     <t>Población con diagnóstico de trastornos de próstata en 2007 (Tasa respuesta: 49,36%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Sí</t>
@@ -98,7 +98,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>0,13%</t>
@@ -113,7 +113,7 @@
     <t>99,32%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>0,17%</t>
@@ -128,7 +128,7 @@
     <t>98,94%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>0,82%</t>
@@ -149,7 +149,7 @@
     <t>99,84%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>5,1%</t>
@@ -170,25 +170,46 @@
     <t>96,84%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>15,95%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>19,11%</t>
-  </si>
-  <si>
-    <t>84,05%</t>
-  </si>
-  <si>
-    <t>80,89%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>87,27%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>73,88%</t>
+  </si>
+  <si>
+    <t>84,65%</t>
   </si>
   <si>
     <t>3,24%</t>
@@ -257,22 +278,40 @@
     <t>92,67%</t>
   </si>
   <si>
+    <t>18,03%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>81,97%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>86,65%</t>
+  </si>
+  <si>
     <t>18,02%</t>
   </si>
   <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
   </si>
   <si>
     <t>81,98%</t>
   </si>
   <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>85,46%</t>
+    <t>76,13%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
   </si>
   <si>
     <t>3,63%</t>
@@ -344,22 +383,40 @@
     <t>98,61%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
-  </si>
-  <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>87,64%</t>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>87,22%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
+  </si>
+  <si>
+    <t>14,5%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>85,5%</t>
   </si>
   <si>
     <t>3,21%</t>
@@ -398,85 +455,97 @@
     <t>0,25%</t>
   </si>
   <si>
-    <t>1,27%</t>
+    <t>1,28%</t>
   </si>
   <si>
     <t>99,75%</t>
   </si>
   <si>
-    <t>98,73%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
-  </si>
-  <si>
-    <t>98,56%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>99,27%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
   </si>
   <si>
     <t>3,39%</t>
   </si>
   <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>93,28%</t>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
   </si>
   <si>
     <t>96,61%</t>
   </si>
   <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>75,35%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>13,3%</t>
+  </si>
+  <si>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>83,8%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>33,63%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>66,37%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
   </si>
 </sst>
 </file>
@@ -888,8 +957,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B1D368F-03B0-4BDE-AD5F-20C23DA10770}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F82044B-78A5-42C8-8822-1B3BAE72D079}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1751,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="D19" s="7">
-        <v>80129</v>
+        <v>37259</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>44</v>
@@ -1779,10 +1848,10 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="N19" s="7">
-        <v>80129</v>
+        <v>37259</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>44</v>
@@ -1800,10 +1869,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>439</v>
+        <v>265</v>
       </c>
       <c r="D20" s="7">
-        <v>422337</v>
+        <v>255324</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>47</v>
@@ -1828,10 +1897,10 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>439</v>
+        <v>265</v>
       </c>
       <c r="N20" s="7">
-        <v>422337</v>
+        <v>255324</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>47</v>
@@ -1849,10 +1918,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -1877,10 +1946,10 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="N21" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -1894,25 +1963,25 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="D22" s="7">
-        <v>106188</v>
+        <v>42871</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -1928,19 +1997,19 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="N22" s="7">
-        <v>106188</v>
+        <v>42871</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1949,19 +2018,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>3103</v>
+        <v>174</v>
       </c>
       <c r="D23" s="7">
-        <v>3170356</v>
+        <v>167012</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -1977,19 +2046,19 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>3103</v>
+        <v>174</v>
       </c>
       <c r="N23" s="7">
-        <v>3170356</v>
+        <v>167012</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -1998,10 +2067,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3214</v>
+        <v>220</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>209883</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
@@ -2026,33 +2095,183 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
+        <v>220</v>
+      </c>
+      <c r="N24" s="7">
+        <v>209883</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>111</v>
+      </c>
+      <c r="D25" s="7">
+        <v>106188</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>111</v>
+      </c>
+      <c r="N25" s="7">
+        <v>106188</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3103</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3170355</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3103</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3170355</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3214</v>
       </c>
-      <c r="N24" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
+      <c r="D27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3214</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3276543</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2065,8 +2284,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6291FD85-CAF7-4F69-AF72-AC7996C7600B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66BAE61D-F1EF-4F28-9837-801D8A4386EA}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2082,7 +2301,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2195,7 +2414,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -2223,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2241,7 +2460,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -2269,7 +2488,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -2344,7 +2563,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -2372,7 +2591,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2390,7 +2609,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -2418,7 +2637,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -2487,13 +2706,13 @@
         <v>2170</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -2515,13 +2734,13 @@
         <v>2170</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2536,10 +2755,10 @@
         <v>679693</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -2564,10 +2783,10 @@
         <v>679693</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -2642,7 +2861,7 @@
         <v>12</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -2670,7 +2889,7 @@
         <v>12</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2688,7 +2907,7 @@
         <v>16</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -2716,7 +2935,7 @@
         <v>16</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -2785,13 +3004,13 @@
         <v>21775</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2813,13 +3032,13 @@
         <v>21775</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2834,13 +3053,13 @@
         <v>407654</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -2862,13 +3081,13 @@
         <v>407654</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,19 +3147,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="D19" s="7">
-        <v>100465</v>
+        <v>55844</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -2956,19 +3175,19 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="N19" s="7">
-        <v>100465</v>
+        <v>55844</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2977,19 +3196,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="D20" s="7">
-        <v>456981</v>
+        <v>253942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3005,19 +3224,19 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>413</v>
+        <v>232</v>
       </c>
       <c r="N20" s="7">
-        <v>456981</v>
+        <v>253942</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3026,10 +3245,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D21" s="7">
-        <v>557446</v>
+        <v>309786</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -3054,10 +3273,10 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="N21" s="7">
-        <v>557446</v>
+        <v>309786</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -3071,25 +3290,25 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="D22" s="7">
-        <v>124409</v>
+        <v>44620</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3105,19 +3324,19 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>112</v>
+        <v>40</v>
       </c>
       <c r="N22" s="7">
-        <v>124409</v>
+        <v>44620</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3126,19 +3345,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>3096</v>
+        <v>181</v>
       </c>
       <c r="D23" s="7">
-        <v>3300178</v>
+        <v>203039</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -3154,19 +3373,19 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>3096</v>
+        <v>181</v>
       </c>
       <c r="N23" s="7">
-        <v>3300178</v>
+        <v>203039</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3175,10 +3394,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3208</v>
+        <v>221</v>
       </c>
       <c r="D24" s="7">
-        <v>3424587</v>
+        <v>247659</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
@@ -3203,33 +3422,183 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
+        <v>221</v>
+      </c>
+      <c r="N24" s="7">
+        <v>247659</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>112</v>
+      </c>
+      <c r="D25" s="7">
+        <v>124409</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>112</v>
+      </c>
+      <c r="N25" s="7">
+        <v>124409</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3096</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3300178</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3096</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3300178</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3208</v>
       </c>
-      <c r="N24" s="7">
+      <c r="D27" s="7">
         <v>3424587</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3208</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3424587</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3242,8 +3611,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE55E12-946A-43B2-9CF5-139B6E424CE4}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABE3B25-44AB-42EE-B051-D195FDD404C8}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3259,7 +3628,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>97</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3372,7 +3741,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3400,7 +3769,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>85</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3418,7 +3787,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -3446,7 +3815,7 @@
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -3521,7 +3890,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3549,7 +3918,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3936,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -3595,7 +3964,7 @@
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -3664,13 +4033,13 @@
         <v>1970</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3692,13 +4061,13 @@
         <v>1970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,10 +4082,10 @@
         <v>667127</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -3741,10 +4110,10 @@
         <v>667127</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -3816,10 +4185,10 @@
         <v>21</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -3844,10 +4213,10 @@
         <v>21</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,10 +4234,10 @@
         <v>23</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -3893,10 +4262,10 @@
         <v>23</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3962,13 +4331,13 @@
         <v>12781</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3990,13 +4359,13 @@
         <v>12781</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4011,13 +4380,13 @@
         <v>465137</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -4039,13 +4408,13 @@
         <v>465137</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4105,19 +4474,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="D19" s="7">
-        <v>89850</v>
+        <v>42713</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -4133,19 +4502,19 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>96</v>
+        <v>41</v>
       </c>
       <c r="N19" s="7">
-        <v>89850</v>
+        <v>42713</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4154,19 +4523,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>531</v>
+        <v>284</v>
       </c>
       <c r="D20" s="7">
-        <v>501478</v>
+        <v>291617</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -4182,19 +4551,19 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>531</v>
+        <v>284</v>
       </c>
       <c r="N20" s="7">
-        <v>501478</v>
+        <v>291617</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4203,10 +4572,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -4231,10 +4600,10 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="N21" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -4248,25 +4617,25 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="D22" s="7">
-        <v>109002</v>
+        <v>47138</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -4282,19 +4651,19 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="N22" s="7">
-        <v>109002</v>
+        <v>47138</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>107</v>
+        <v>120</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>108</v>
+        <v>121</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,19 +4672,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>3117</v>
+        <v>247</v>
       </c>
       <c r="D23" s="7">
-        <v>3285348</v>
+        <v>209860</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -4331,19 +4700,19 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>3117</v>
+        <v>247</v>
       </c>
       <c r="N23" s="7">
-        <v>3285348</v>
+        <v>209860</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>123</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>111</v>
+        <v>124</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4352,10 +4721,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3231</v>
+        <v>302</v>
       </c>
       <c r="D24" s="7">
-        <v>3394350</v>
+        <v>256998</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
@@ -4380,33 +4749,183 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
+        <v>302</v>
+      </c>
+      <c r="N24" s="7">
+        <v>256998</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>114</v>
+      </c>
+      <c r="D25" s="7">
+        <v>109002</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>114</v>
+      </c>
+      <c r="N25" s="7">
+        <v>109002</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3117</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3285348</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3117</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3285348</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3231</v>
       </c>
-      <c r="N24" s="7">
+      <c r="D27" s="7">
         <v>3394350</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3231</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3394350</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4419,8 +4938,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C50FE9F5-8B2F-4A24-8132-5BF959F8B9DE}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF0FA0F-2C6B-4B5A-AC34-C01492199E3A}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4436,7 +4955,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4549,7 +5068,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4577,7 +5096,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>114</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4589,13 +5108,13 @@
         <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>374012</v>
+        <v>395910</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>18</v>
@@ -4617,13 +5136,13 @@
         <v>171</v>
       </c>
       <c r="N5" s="7">
-        <v>374012</v>
+        <v>395910</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>115</v>
+        <v>134</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>18</v>
@@ -4638,7 +5157,7 @@
         <v>171</v>
       </c>
       <c r="D6" s="7">
-        <v>374012</v>
+        <v>395910</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>18</v>
@@ -4666,7 +5185,7 @@
         <v>171</v>
       </c>
       <c r="N6" s="7">
-        <v>374012</v>
+        <v>395910</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>18</v>
@@ -4698,7 +5217,7 @@
         <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -4726,7 +5245,7 @@
         <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4738,13 +5257,13 @@
         <v>301</v>
       </c>
       <c r="D8" s="7">
-        <v>426540</v>
+        <v>422008</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>18</v>
@@ -4766,13 +5285,13 @@
         <v>301</v>
       </c>
       <c r="N8" s="7">
-        <v>426540</v>
+        <v>422008</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
         <v>18</v>
@@ -4787,7 +5306,7 @@
         <v>301</v>
       </c>
       <c r="D9" s="7">
-        <v>426540</v>
+        <v>422008</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>18</v>
@@ -4815,7 +5334,7 @@
         <v>301</v>
       </c>
       <c r="N9" s="7">
-        <v>426540</v>
+        <v>422008</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>18</v>
@@ -4838,16 +5357,16 @@
         <v>1</v>
       </c>
       <c r="D10" s="7">
-        <v>1411</v>
+        <v>1358</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -4866,16 +5385,16 @@
         <v>1</v>
       </c>
       <c r="N10" s="7">
-        <v>1411</v>
+        <v>1358</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4887,13 +5406,13 @@
         <v>543</v>
       </c>
       <c r="D11" s="7">
-        <v>553267</v>
+        <v>532564</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
@@ -4915,13 +5434,13 @@
         <v>543</v>
       </c>
       <c r="N11" s="7">
-        <v>553267</v>
+        <v>532564</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>120</v>
+        <v>139</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>121</v>
+        <v>140</v>
       </c>
       <c r="Q11" s="7" t="s">
         <v>16</v>
@@ -4936,7 +5455,7 @@
         <v>544</v>
       </c>
       <c r="D12" s="7">
-        <v>554678</v>
+        <v>533922</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>18</v>
@@ -4964,7 +5483,7 @@
         <v>544</v>
       </c>
       <c r="N12" s="7">
-        <v>554678</v>
+        <v>533922</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>18</v>
@@ -4987,16 +5506,16 @@
         <v>10</v>
       </c>
       <c r="D13" s="7">
-        <v>10364</v>
+        <v>10211</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -5015,16 +5534,16 @@
         <v>10</v>
       </c>
       <c r="N13" s="7">
-        <v>10364</v>
+        <v>10211</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>141</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5036,16 +5555,16 @@
         <v>649</v>
       </c>
       <c r="D14" s="7">
-        <v>707130</v>
+        <v>871323</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
       <c r="H14" s="7">
         <v>0</v>
@@ -5064,16 +5583,16 @@
         <v>649</v>
       </c>
       <c r="N14" s="7">
-        <v>707130</v>
+        <v>871323</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5085,7 +5604,7 @@
         <v>659</v>
       </c>
       <c r="D15" s="7">
-        <v>717494</v>
+        <v>881534</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>18</v>
@@ -5113,7 +5632,7 @@
         <v>659</v>
       </c>
       <c r="N15" s="7">
-        <v>717494</v>
+        <v>881534</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>18</v>
@@ -5136,16 +5655,16 @@
         <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>28808</v>
+        <v>27233</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -5164,16 +5683,16 @@
         <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>28808</v>
+        <v>27233</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5185,16 +5704,16 @@
         <v>626</v>
       </c>
       <c r="D17" s="7">
-        <v>567737</v>
+        <v>530647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="H17" s="7">
         <v>0</v>
@@ -5213,16 +5732,16 @@
         <v>626</v>
       </c>
       <c r="N17" s="7">
-        <v>567737</v>
+        <v>530647</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,7 +5753,7 @@
         <v>659</v>
       </c>
       <c r="D18" s="7">
-        <v>596545</v>
+        <v>557880</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>18</v>
@@ -5262,7 +5781,7 @@
         <v>659</v>
       </c>
       <c r="N18" s="7">
-        <v>596545</v>
+        <v>557880</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>18</v>
@@ -5282,19 +5801,19 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="D19" s="7">
-        <v>153805</v>
+        <v>59421</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -5310,19 +5829,19 @@
         <v>14</v>
       </c>
       <c r="M19" s="7">
-        <v>234</v>
+        <v>94</v>
       </c>
       <c r="N19" s="7">
-        <v>153805</v>
+        <v>59421</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>152</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5331,19 +5850,19 @@
         <v>15</v>
       </c>
       <c r="C20" s="7">
-        <v>791</v>
+        <v>474</v>
       </c>
       <c r="D20" s="7">
-        <v>541579</v>
+        <v>307323</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -5359,19 +5878,19 @@
         <v>14</v>
       </c>
       <c r="M20" s="7">
-        <v>791</v>
+        <v>474</v>
       </c>
       <c r="N20" s="7">
-        <v>541579</v>
+        <v>307323</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5380,10 +5899,10 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="D21" s="7">
-        <v>695384</v>
+        <v>366744</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>18</v>
@@ -5408,10 +5927,10 @@
         <v>14</v>
       </c>
       <c r="M21" s="7">
-        <v>1025</v>
+        <v>568</v>
       </c>
       <c r="N21" s="7">
-        <v>695384</v>
+        <v>366744</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>18</v>
@@ -5425,25 +5944,25 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>50</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="D22" s="7">
-        <v>194387</v>
+        <v>82015</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -5459,19 +5978,19 @@
         <v>14</v>
       </c>
       <c r="M22" s="7">
-        <v>278</v>
+        <v>140</v>
       </c>
       <c r="N22" s="7">
-        <v>194387</v>
+        <v>82015</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5480,19 +5999,19 @@
         <v>15</v>
       </c>
       <c r="C23" s="7">
-        <v>3081</v>
+        <v>317</v>
       </c>
       <c r="D23" s="7">
-        <v>3170265</v>
+        <v>199998</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
       <c r="H23" s="7">
         <v>0</v>
@@ -5508,19 +6027,19 @@
         <v>14</v>
       </c>
       <c r="M23" s="7">
-        <v>3081</v>
+        <v>317</v>
       </c>
       <c r="N23" s="7">
-        <v>3170265</v>
+        <v>199998</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5529,10 +6048,10 @@
         <v>3</v>
       </c>
       <c r="C24" s="7">
-        <v>3359</v>
+        <v>457</v>
       </c>
       <c r="D24" s="7">
-        <v>3364652</v>
+        <v>282013</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>18</v>
@@ -5557,33 +6076,183 @@
         <v>14</v>
       </c>
       <c r="M24" s="7">
+        <v>457</v>
+      </c>
+      <c r="N24" s="7">
+        <v>282013</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>278</v>
+      </c>
+      <c r="D25" s="7">
+        <v>180237</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="7">
+        <v>0</v>
+      </c>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M25" s="7">
+        <v>278</v>
+      </c>
+      <c r="N25" s="7">
+        <v>180237</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>3081</v>
+      </c>
+      <c r="D26" s="7">
+        <v>3259774</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="H26" s="7">
+        <v>0</v>
+      </c>
+      <c r="I26" s="7"/>
+      <c r="J26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M26" s="7">
+        <v>3081</v>
+      </c>
+      <c r="N26" s="7">
+        <v>3259774</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
         <v>3359</v>
       </c>
-      <c r="N24" s="7">
-        <v>3364652</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>56</v>
+      <c r="D27" s="7">
+        <v>3440011</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H27" s="7">
+        <v>0</v>
+      </c>
+      <c r="I27" s="7"/>
+      <c r="J27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M27" s="7">
+        <v>3359</v>
+      </c>
+      <c r="N27" s="7">
+        <v>3440011</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
